--- a/JPADSandBox_v2/out/ATR-72 - ATsi/PERFORMANCE/XCG_0.35/Performance_0.35.xlsx
+++ b/JPADSandBox_v2/out/ATR-72 - ATsi/PERFORMANCE/XCG_0.35/Performance_0.35.xlsx
@@ -592,7 +592,7 @@
         <v>31</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0</v>
+        <v>30111.785835342387</v>
       </c>
     </row>
     <row r="41">
@@ -603,7 +603,7 @@
         <v>31</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0</v>
+        <v>11903.773654072735</v>
       </c>
     </row>
     <row r="42">
@@ -636,7 +636,7 @@
         <v>31</v>
       </c>
       <c r="C44" t="n">
-        <v>30111.785835342387</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -647,7 +647,7 @@
         <v>31</v>
       </c>
       <c r="C45" t="n">
-        <v>11903.773654072735</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
